--- a/data_process/四气五味+归经_703.xlsx
+++ b/data_process/四气五味+归经_703.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="1129">
   <si>
     <t>Chinese_name</t>
   </si>
@@ -3402,6 +3402,18 @@
   </si>
   <si>
     <t>茯神</t>
+  </si>
+  <si>
+    <t>浮小麦</t>
+  </si>
+  <si>
+    <t>煅龙骨</t>
+  </si>
+  <si>
+    <t>心,肝,肾,大肠</t>
+  </si>
+  <si>
+    <t>蝉花</t>
   </si>
 </sst>
 </file>
@@ -3414,7 +3426,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3425,13 +3437,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3899,28 +3904,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3929,118 +3937,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4395,10 +4400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C706"/>
+  <dimension ref="A1:C709"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A683" workbookViewId="0">
-      <selection activeCell="C704" sqref="C704"/>
+    <sheetView tabSelected="1" topLeftCell="A674" workbookViewId="0">
+      <selection activeCell="C709" sqref="C709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -12173,6 +12178,39 @@
         <v>11</v>
       </c>
     </row>
+    <row r="707" spans="1:3">
+      <c r="A707" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B707" t="s">
+        <v>250</v>
+      </c>
+      <c r="C707" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="A708" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B708" t="s">
+        <v>481</v>
+      </c>
+      <c r="C708" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3">
+      <c r="A709" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B709" t="s">
+        <v>343</v>
+      </c>
+      <c r="C709" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
